--- a/Homework/JulyZscoresHW.xlsx
+++ b/Homework/JulyZscoresHW.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\edxtake2module1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anguyen\Documents\GitHub\stats-edx\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F3973E-BC4B-4954-BF94-9A10DD2B46F1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -107,7 +113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -439,26 +445,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:P66"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="12.54296875" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -466,7 +472,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -480,7 +486,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -494,7 +500,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -508,7 +514,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -522,7 +528,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -536,7 +542,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F9" s="2" t="s">
         <v>13</v>
       </c>
@@ -544,7 +550,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -555,9 +561,17 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>83</v>
+      </c>
+      <c r="B11">
+        <f>A11+5</f>
+        <v>88</v>
+      </c>
+      <c r="D11">
+        <f>AVERAGE(A11:A103)</f>
+        <v>75.41935483870968</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>15</v>
@@ -566,9 +580,17 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>81</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ref="B12:B75" si="0">A12+5</f>
+        <v>86</v>
+      </c>
+      <c r="D12">
+        <f>AVERAGE(B11:B103)</f>
+        <v>80.365591397849457</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>16</v>
@@ -577,14 +599,22 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>76</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>82</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>17</v>
@@ -593,9 +623,13 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>69</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>74</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>18</v>
@@ -604,9 +638,13 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>67</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>72</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>19</v>
@@ -615,9 +653,13 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>75</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>20</v>
@@ -626,9 +668,13 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>68</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>73</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>21</v>
@@ -637,9 +683,13 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>80</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>85</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>22</v>
@@ -648,9 +698,13 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>64</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>69</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>25</v>
@@ -659,9 +713,13 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>57</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>62</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>23</v>
@@ -670,9 +728,13 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>78</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>83</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>24</v>
@@ -682,409 +744,732 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>78</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>84</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>79</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>77</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>73</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>73</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>72</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>80</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>92</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>81</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>80</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>79</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>74</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>70</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>67</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>75</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>73</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>82</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>75</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>74</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>71</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>75</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>79</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>64</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>63</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>52</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>71</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>83</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>75</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>90</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>89</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>67</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>81</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>84</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>80</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>73</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>70</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>74</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>84</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>80</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>78</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>63</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>100</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>80</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B68">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B69">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>74</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B70">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>65</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B71">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>85</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B72">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>60</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B73">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>84</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B74">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>87</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B75">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>82</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B76">
+        <f t="shared" ref="B76:B103" si="1">A76+5</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>81</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B77">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>69</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B78">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>68</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B79">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B80">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B81">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>62</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B82">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>71</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B83">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>74</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B84">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B85">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>76</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B86">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B87">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>83</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B88">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>79</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B89">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>80</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B90">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>80</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B91">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>95</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B92">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>84</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B93">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>66</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B94">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>75</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B95">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>90</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B96">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>64</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B97">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>77</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B98">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>61</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B99">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>61</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B100">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>79</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B101">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>63</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B102">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>65</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="1"/>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
